--- a/data/raw/Macro_series_FS25.xlsx
+++ b/data/raw/Macro_series_FS25.xlsx
@@ -1,23 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rathkea\polybox2\Lehre\Methods_of_Empirical_Macro\WS_2025\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevindesilva/Documents/Git_Repo/forecasting_pca/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DD40B9A-1900-4013-85F2-3A91157EC3F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9757461F-D3A7-C94E-814B-6CC595C826C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DB9E8CE3-5C93-4691-A27C-79EB519596B7}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="15720" xr2:uid="{DB9E8CE3-5C93-4691-A27C-79EB519596B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="400">
   <si>
     <t>vaa</t>
   </si>
@@ -1078,6 +1075,168 @@
   <si>
     <t>Lager, Wachtumsbeitrag</t>
   </si>
+  <si>
+    <t>Konsum Private Haushalte und POoE, Real, csa</t>
+  </si>
+  <si>
+    <t>Staatskonsum, Real, csa</t>
+  </si>
+  <si>
+    <t>Bauinvestitionen, Real, csa</t>
+  </si>
+  <si>
+    <t>Ausrüstungen, Real, csa</t>
+  </si>
+  <si>
+    <t>Warenexporte  ohne n. m. Gold, Transith. u. Wertsachen, Real, csa</t>
+  </si>
+  <si>
+    <t>Exporte, Transithandel</t>
+  </si>
+  <si>
+    <t>Exporte, Tourismus, real</t>
+  </si>
+  <si>
+    <t>Dienstleistungsexporte inkl. Tourismus, real, csa</t>
+  </si>
+  <si>
+    <t>Warenimporte ohne n. m. Gold u. Wertsachen, Real, csa</t>
+  </si>
+  <si>
+    <t>Importe, Services, real</t>
+  </si>
+  <si>
+    <t>Importe, Tourismus, real</t>
+  </si>
+  <si>
+    <t>Dienstleistungsimporte inkl. Tourismus, real, csa</t>
+  </si>
+  <si>
+    <t>Konsumnachfrage</t>
+  </si>
+  <si>
+    <t>Bruttoanlageinvestitionen, real, csa</t>
+  </si>
+  <si>
+    <t>Inländische Nachfrage</t>
+  </si>
+  <si>
+    <t>Waren und Diensleistungsexporte ohne n. m. Gold u. Wertsachen, real, sa</t>
+  </si>
+  <si>
+    <t>Gesamtnachfrage ohne n. m. Gold u. Wertsachen, real, csa</t>
+  </si>
+  <si>
+    <t>Waren und Diensleistungsimporte ohne n. m. Gold u. Wertsachen, real, sa</t>
+  </si>
+  <si>
+    <t>Bruttoinlandprodukt, real, csa</t>
+  </si>
+  <si>
+    <t>Wertschöpfung Sport, real, sa, KMM</t>
+  </si>
+  <si>
+    <t>Bruttoinlandprodukt ohne Lager, real, csa</t>
+  </si>
+  <si>
+    <t>Konsum Private Haushalte und POoE, Delfator, csa</t>
+  </si>
+  <si>
+    <t>Staatskonsum, Delfator, csa</t>
+  </si>
+  <si>
+    <t>Bauinvestitionen, Delfator, csa</t>
+  </si>
+  <si>
+    <t>Ausrüstungen, Delfator, csa</t>
+  </si>
+  <si>
+    <t>Warenexporte  ohne n. m. Gold, Transith. u. Wertsachen, Delfator, csa</t>
+  </si>
+  <si>
+    <t>Exporte, Tourismus, Delfator</t>
+  </si>
+  <si>
+    <t>Dienstleistungsexporte inkl. Tourismus, deflator, csa</t>
+  </si>
+  <si>
+    <t>Warenimporte ohne n. m. Gold u. Wertsachen, Delfator, csa</t>
+  </si>
+  <si>
+    <t>Importe, Services, Delfator</t>
+  </si>
+  <si>
+    <t>Importe, Tourismus, Delfator</t>
+  </si>
+  <si>
+    <t>Dienstleistungsimporte inkl. Tourismus, deflator, csa</t>
+  </si>
+  <si>
+    <t>Bruttoanlageinvestitionen, deflator, csa</t>
+  </si>
+  <si>
+    <t>Waren und Diensleistungsexporte ohne n. m. Gold u. Wertsachen, deflator, sa</t>
+  </si>
+  <si>
+    <t>Waren und Diensleistungsimporte ohne n. m. Gold u. Wertsachen, deflator, sa</t>
+  </si>
+  <si>
+    <t>BIP bereinigt um internationale Sportanlässe, deflator</t>
+  </si>
+  <si>
+    <t>BIP, Deflator, sa</t>
+  </si>
+  <si>
+    <t>Konsum Private Haushalte und POoE, nominal, csa</t>
+  </si>
+  <si>
+    <t>Staatskonsum, nominal, csa</t>
+  </si>
+  <si>
+    <t>Bauinvestitionen, nominal, csa</t>
+  </si>
+  <si>
+    <t>Ausrüstungen, nominal, csa</t>
+  </si>
+  <si>
+    <t>Warenexporte  ohne n. m. Gold, Transith. u. Wertsachen, nominal, csa</t>
+  </si>
+  <si>
+    <t>Exporte, Tourismus, nominal</t>
+  </si>
+  <si>
+    <t>Dienstleistungsexporte inkl. Tourismus, nominal, csa</t>
+  </si>
+  <si>
+    <t>Warenimporte ohne n. m. Gold u. Wertsachen, nominal, csa</t>
+  </si>
+  <si>
+    <t>Importe, Services, nominal</t>
+  </si>
+  <si>
+    <t>Importe, Tourismus, nominal</t>
+  </si>
+  <si>
+    <t>Dienstleistungsimporte inkl. Tourismus, nominal, csa</t>
+  </si>
+  <si>
+    <t>Bruttoanlageinvestitionen, nominal, csa</t>
+  </si>
+  <si>
+    <t>Waren und Diensleistungsexporte ohne n. m. Gold u. Wertsachen, nominal, sa</t>
+  </si>
+  <si>
+    <t>Waren und Diensleistungsimporte ohne n. m. Gold u. Wertsachen, nominal, sa</t>
+  </si>
+  <si>
+    <t>BIP bereinigt um internationale Sportanlässe, nominal</t>
+  </si>
+  <si>
+    <t>Bruttoinlandprodukt, nominal, csa</t>
+  </si>
+  <si>
+    <t>Lagervänderungen inkl. Stat Differenz</t>
+  </si>
 </sst>
 </file>
 
@@ -1116,7 +1275,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1129,1707 +1288,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="world"/>
-      <sheetName val="prod_2020"/>
-      <sheetName val="prod_neu"/>
-      <sheetName val="csr"/>
-      <sheetName val="besta"/>
-      <sheetName val="besta_bfs"/>
-      <sheetName val="inc"/>
-      <sheetName val="exp_kmm"/>
-      <sheetName val="koma"/>
-      <sheetName val="names_vja"/>
-      <sheetName val="names_ex"/>
-      <sheetName val="names_ad"/>
-      <sheetName val="hjasais"/>
-      <sheetName val="bop"/>
-      <sheetName val="bfs_prod_neu"/>
-      <sheetName val="bfs_exp"/>
-      <sheetName val="bfs_con"/>
-      <sheetName val="bfs_inc"/>
-      <sheetName val="names_corollary"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>icnstr</v>
-          </cell>
-          <cell r="C1" t="str">
-            <v>Bauinvestitionen, Real, csa</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="B2" t="str">
-            <v>ime</v>
-          </cell>
-          <cell r="C2" t="str">
-            <v>Ausrüstungen, Real, csa</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3" t="str">
-            <v>exs</v>
-          </cell>
-          <cell r="C3" t="str">
-            <v>Exporte, Services</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4" t="str">
-            <v>ext</v>
-          </cell>
-          <cell r="C4" t="str">
-            <v>Exporte, Tourismus, real</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5" t="str">
-            <v>ims</v>
-          </cell>
-          <cell r="C5" t="str">
-            <v>Importe, Services, real</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6" t="str">
-            <v>imt</v>
-          </cell>
-          <cell r="C6" t="str">
-            <v>Importe, Tourismus, real</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7" t="str">
-            <v>consg</v>
-          </cell>
-          <cell r="C7" t="str">
-            <v>Staatskonsum, Real, csa</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8" t="str">
-            <v>consp</v>
-          </cell>
-          <cell r="C8" t="str">
-            <v>Konsum Private Haushalte und POoE, Real, csa</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9" t="str">
-            <v>exc1</v>
-          </cell>
-          <cell r="C9" t="str">
-            <v>Warenexporte  ohne n. m. Gold, Transith. u. Wertsachen, Real, csa</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10" t="str">
-            <v>excm</v>
-          </cell>
-          <cell r="C10" t="str">
-            <v>Exporte, Transithandel</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="B11" t="str">
-            <v>imc1</v>
-          </cell>
-          <cell r="C11" t="str">
-            <v>Warenimporte ohne n. m. Gold u. Wertsachen, Real, csa</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="B12" t="str">
-            <v>picnstr</v>
-          </cell>
-          <cell r="C12" t="str">
-            <v>Bauinvestitionen, Delfator, csa</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="B13" t="str">
-            <v>pime</v>
-          </cell>
-          <cell r="C13" t="str">
-            <v>Ausrüstungen, Delfator, csa</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="B14" t="str">
-            <v>pexs</v>
-          </cell>
-          <cell r="C14" t="str">
-            <v>Exporte, Services</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="B15" t="str">
-            <v>pext</v>
-          </cell>
-          <cell r="C15" t="str">
-            <v>Exporte, Tourismus, Delfator</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="B16" t="str">
-            <v>pims</v>
-          </cell>
-          <cell r="C16" t="str">
-            <v>Importe, Services, Delfator</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="B17" t="str">
-            <v>pimt</v>
-          </cell>
-          <cell r="C17" t="str">
-            <v>Importe, Tourismus, Delfator</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="B18" t="str">
-            <v>pconsg</v>
-          </cell>
-          <cell r="C18" t="str">
-            <v>Staatskonsum, Delfator, csa</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="B19" t="str">
-            <v>pconsp</v>
-          </cell>
-          <cell r="C19" t="str">
-            <v>Konsum Private Haushalte und POoE, Delfator, csa</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="B20" t="str">
-            <v>pexc1</v>
-          </cell>
-          <cell r="C20" t="str">
-            <v>Warenexporte  ohne n. m. Gold, Transith. u. Wertsachen, Delfator, csa</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="B21" t="str">
-            <v>pexcm</v>
-          </cell>
-          <cell r="C21" t="str">
-            <v>Exporte, Transithandel</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="B22" t="str">
-            <v>pimc1</v>
-          </cell>
-          <cell r="C22" t="str">
-            <v>Warenimporte ohne n. m. Gold u. Wertsachen, Delfator, csa</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="B23" t="str">
-            <v>niinv1</v>
-          </cell>
-          <cell r="C23" t="str">
-            <v>Lagervänderungen inkl. Stat Differenz</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="B24" t="str">
-            <v>fwork</v>
-          </cell>
-          <cell r="C24" t="str">
-            <v>Grenzgänger</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="B25" t="str">
-            <v>ihouse</v>
-          </cell>
-          <cell r="C25" t="str">
-            <v>Bauinvestitionen, Wohnungsbau</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="B26" t="str">
-            <v>lrate</v>
-          </cell>
-          <cell r="C26" t="str">
-            <v>Langfristzins</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="B27" t="str">
-            <v>penergy</v>
-          </cell>
-          <cell r="C27" t="str">
-            <v>Energiepreise</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="B28" t="str">
-            <v>pgdp</v>
-          </cell>
-          <cell r="C28" t="str">
-            <v>BIP, Deflator, sa</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="B29" t="str">
-            <v>phr</v>
-          </cell>
-          <cell r="C29" t="str">
-            <v>LIK Wohnungsmiete</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="B30" t="str">
-            <v>pimcoe</v>
-          </cell>
-          <cell r="C30" t="str">
-            <v>pimcoe</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="B31" t="str">
-            <v>srate</v>
-          </cell>
-          <cell r="C31" t="str">
-            <v>3-Monats CHF LIBOR</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="B32" t="str">
-            <v>swork</v>
-          </cell>
-          <cell r="C32" t="str">
-            <v>Kurzaufenthalter</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="B33" t="str">
-            <v>urilo</v>
-          </cell>
-          <cell r="C33" t="str">
-            <v>Arbeitslosenquote ILO</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="B34" t="str">
-            <v>wage</v>
-          </cell>
-          <cell r="C34" t="str">
-            <v>SLI Lohnindex</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="B35" t="str">
-            <v>gdp</v>
-          </cell>
-          <cell r="C35" t="str">
-            <v>Bruttoinlandprodukt, real, csa</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="B36" t="str">
-            <v>ifix</v>
-          </cell>
-          <cell r="C36" t="str">
-            <v>Bruttoanlageinvestitionen, real, csa</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="B37" t="str">
-            <v>exst</v>
-          </cell>
-          <cell r="C37" t="str">
-            <v>Dienstleistungsexporte inkl. Tourismus, real, csa</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="B38" t="str">
-            <v>imst</v>
-          </cell>
-          <cell r="C38" t="str">
-            <v>Dienstleistungsimporte inkl. Tourismus, real, csa</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="B39" t="str">
-            <v>domdemoi</v>
-          </cell>
-          <cell r="C39" t="str">
-            <v>Inländische Nachfrage</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="B40" t="str">
-            <v>extot1</v>
-          </cell>
-          <cell r="C40" t="str">
-            <v>Waren und Diensleistungsexporte ohne n. m. Gold u. Wertsachen, real, sa</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="B41" t="str">
-            <v>imtot1</v>
-          </cell>
-          <cell r="C41" t="str">
-            <v>Waren und Diensleistungsimporte ohne n. m. Gold u. Wertsachen, real, sa</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="B42" t="str">
-            <v>totdemoi</v>
-          </cell>
-          <cell r="C42" t="str">
-            <v>Gesamtnachfrage ohne lager ohne n. m. Gold u. Wertsachen, real, csa</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="B43" t="str">
-            <v>totdem</v>
-          </cell>
-          <cell r="C43" t="str">
-            <v>Gesamtnachfrage ohne n. m. Gold u. Wertsachen, real, csa</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="B44" t="str">
-            <v>gdpoi</v>
-          </cell>
-          <cell r="C44" t="str">
-            <v>Bruttoinlandprodukt ohne Lager, real, csa</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="B45" t="str">
-            <v>nicnstr</v>
-          </cell>
-          <cell r="C45" t="str">
-            <v>Bauinvestitionen, nominal, csa</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="B46" t="str">
-            <v>nime</v>
-          </cell>
-          <cell r="C46" t="str">
-            <v>Ausrüstungen, nominal, csa</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="B47" t="str">
-            <v>nexs</v>
-          </cell>
-          <cell r="C47" t="str">
-            <v>Exporte, Services</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="B48" t="str">
-            <v>next</v>
-          </cell>
-          <cell r="C48" t="str">
-            <v>Exporte, Tourismus, nominal</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="B49" t="str">
-            <v>nims</v>
-          </cell>
-          <cell r="C49" t="str">
-            <v>Importe, Services, nominal</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="B50" t="str">
-            <v>nimt</v>
-          </cell>
-          <cell r="C50" t="str">
-            <v>Importe, Tourismus, nominal</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="B51" t="str">
-            <v>nconsg</v>
-          </cell>
-          <cell r="C51" t="str">
-            <v>Staatskonsum, nominal, csa</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="B52" t="str">
-            <v>nconsp</v>
-          </cell>
-          <cell r="C52" t="str">
-            <v>Konsum Private Haushalte und POoE, nominal, csa</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="B53" t="str">
-            <v>nexc1</v>
-          </cell>
-          <cell r="C53" t="str">
-            <v>Warenexporte  ohne n. m. Gold, Transith. u. Wertsachen, nominal, csa</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="B54" t="str">
-            <v>nexcm</v>
-          </cell>
-          <cell r="C54" t="str">
-            <v>Exporte, Transithandel</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="B55" t="str">
-            <v>nimc1</v>
-          </cell>
-          <cell r="C55" t="str">
-            <v>Warenimporte ohne n. m. Gold u. Wertsachen, nominal, csa</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="B56" t="str">
-            <v>ngdp</v>
-          </cell>
-          <cell r="C56" t="str">
-            <v>Bruttoinlandprodukt, nominal, csa</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="B57" t="str">
-            <v>nifix</v>
-          </cell>
-          <cell r="C57" t="str">
-            <v>Bruttoanlageinvestitionen, nominal, csa</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="B58" t="str">
-            <v>nexst</v>
-          </cell>
-          <cell r="C58" t="str">
-            <v>Dienstleistungsexporte inkl. Tourismus, nominal, csa</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="B59" t="str">
-            <v>nimst</v>
-          </cell>
-          <cell r="C59" t="str">
-            <v>Dienstleistungsimporte inkl. Tourismus, nominal, csa</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="B60" t="str">
-            <v>ndomdemoi</v>
-          </cell>
-          <cell r="C60" t="str">
-            <v>ndomdemoi</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="B61" t="str">
-            <v>nextot1</v>
-          </cell>
-          <cell r="C61" t="str">
-            <v>Waren und Diensleistungsexporte ohne n. m. Gold u. Wertsachen, nominal, sa</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="B62" t="str">
-            <v>nimtot1</v>
-          </cell>
-          <cell r="C62" t="str">
-            <v>Waren und Diensleistungsimporte ohne n. m. Gold u. Wertsachen, nominal, sa</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="B63" t="str">
-            <v>ntotdemoi</v>
-          </cell>
-          <cell r="C63" t="str">
-            <v>ntotdemoi</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="B64" t="str">
-            <v>ntotdem</v>
-          </cell>
-          <cell r="C64" t="str">
-            <v>ntotdem</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="B65" t="str">
-            <v>ngdpoi</v>
-          </cell>
-          <cell r="C65" t="str">
-            <v>Bruttoinlandprodukt ohne Lager, nominal, csa</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="B66" t="str">
-            <v>pifix</v>
-          </cell>
-          <cell r="C66" t="str">
-            <v>Bruttoanlageinvestitionen, deflator, csa</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="B67" t="str">
-            <v>pexst</v>
-          </cell>
-          <cell r="C67" t="str">
-            <v>Dienstleistungsexporte inkl. Tourismus, deflator, csa</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="B68" t="str">
-            <v>pimst</v>
-          </cell>
-          <cell r="C68" t="str">
-            <v>Dienstleistungsimporte inkl. Tourismus, deflator, csa</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="B69" t="str">
-            <v>pdomdemoi</v>
-          </cell>
-          <cell r="C69" t="str">
-            <v>pdomdemoi</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="B70" t="str">
-            <v>pextot1</v>
-          </cell>
-          <cell r="C70" t="str">
-            <v>Waren und Diensleistungsexporte ohne n. m. Gold u. Wertsachen, deflator, sa</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="B71" t="str">
-            <v>pimtot1</v>
-          </cell>
-          <cell r="C71" t="str">
-            <v>Waren und Diensleistungsimporte ohne n. m. Gold u. Wertsachen, deflator, sa</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="B72" t="str">
-            <v>ptotdem</v>
-          </cell>
-          <cell r="C72" t="str">
-            <v>ptotdem</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="B73" t="str">
-            <v>cpi</v>
-          </cell>
-          <cell r="C73" t="str">
-            <v>LIK Gesamt, sa</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="B74" t="str">
-            <v>iinv1</v>
-          </cell>
-          <cell r="C74" t="str">
-            <v>Lager zu Vorjahrespreisen real</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="B75" t="str">
-            <v>et</v>
-          </cell>
-          <cell r="C75" t="str">
-            <v>Erwerbstätige</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="B76" t="str">
-            <v>ltoth</v>
-          </cell>
-          <cell r="C76" t="str">
-            <v xml:space="preserve">Arbeitsvolumen in Stunden </v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="B77" t="str">
-            <v>ywagep</v>
-          </cell>
-          <cell r="C77" t="str">
-            <v>AHV Lohnsumme</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="B78" t="str">
-            <v>unempoff</v>
-          </cell>
-          <cell r="C78" t="str">
-            <v xml:space="preserve">Registrierte Arbeitslose </v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="B79" t="str">
-            <v>uroff</v>
-          </cell>
-          <cell r="C79" t="str">
-            <v>Arbeitslosenquote, SECO</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="B80" t="str">
-            <v>unempilo</v>
-          </cell>
-          <cell r="C80" t="str">
-            <v xml:space="preserve">Arbeitslose gem. ILO </v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="B81" t="str">
-            <v>ywageh</v>
-          </cell>
-          <cell r="C81" t="str">
-            <v>Lohnsumme</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="B82" t="str">
-            <v>icbus</v>
-          </cell>
-          <cell r="C82" t="str">
-            <v>Bauinvestitionen Industrie, Gewerbe, Dienstleistungen (S1, P15)</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="B83" t="str">
-            <v>ictraf</v>
-          </cell>
-          <cell r="C83" t="str">
-            <v>Bauinvestitionen Verkehr und Nachrichtenübermittlung</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="B84" t="str">
-            <v>icinfrar</v>
-          </cell>
-          <cell r="C84" t="str">
-            <v>Bauinvestitionen uebrige Infrastruktur</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="B85" t="str">
-            <v>icagr</v>
-          </cell>
-          <cell r="C85" t="str">
-            <v>Bauinvestitionen Land- und Forstwirtschaft</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="B86" t="str">
-            <v>iccul</v>
-          </cell>
-          <cell r="C86" t="str">
-            <v>Bauinvestitionen Bildung/Forschung, Gesundheit, Kultur/Freizeit</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="B87" t="str">
-            <v>winc</v>
-          </cell>
-          <cell r="C87" t="str">
-            <v>Nominelle Durchschnittslöhne gem. AHV, ywagep/ltotv</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="B88" t="str">
-            <v>wrinc</v>
-          </cell>
-          <cell r="C88" t="str">
-            <v>Reale Durchschnittslöhne gem. AHV, winc/pconsp100</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="B89" t="str">
-            <v>stocki</v>
-          </cell>
-          <cell r="C89" t="str">
-            <v>Stock market</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="B90" t="str">
-            <v>ltotv</v>
-          </cell>
-          <cell r="C90" t="str">
-            <v>Beschäftigung, Gemsamt VZAE</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="B91" t="str">
-            <v>wd</v>
-          </cell>
-          <cell r="C91" t="str">
-            <v>Welt GDP mit Schweizer Exportgewichten</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="B92" t="str">
-            <v>ltot</v>
-          </cell>
-          <cell r="C92" t="str">
-            <v>Beschäftigung, Gemsamt</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="B93" t="str">
-            <v>domdem</v>
-          </cell>
-          <cell r="C93" t="str">
-            <v>Inländische Nachfrage</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="B94" t="str">
-            <v>ndomdem</v>
-          </cell>
-          <cell r="C94" t="str">
-            <v>Inländische Nachfrage</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="B95" t="str">
-            <v>pdomdem</v>
-          </cell>
-          <cell r="C95" t="str">
-            <v>Inländische Nachfrage</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="B96" t="str">
-            <v>constot</v>
-          </cell>
-          <cell r="C96" t="str">
-            <v>Konsumnachfrage</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="B97" t="str">
-            <v>pconstot</v>
-          </cell>
-          <cell r="C97" t="str">
-            <v>Konsumnachfrage</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="B98" t="str">
-            <v>nconstot</v>
-          </cell>
-          <cell r="C98" t="str">
-            <v>Konsumnachfrage</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="B99" t="str">
-            <v>ydispb</v>
-          </cell>
-          <cell r="C99" t="str">
-            <v>Verfügbares Haushaltseinkommen</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="B100" t="str">
-            <v>ybusprb</v>
-          </cell>
-          <cell r="C100" t="str">
-            <v>Geschaefts- und Vermoegenseinkommen der Haushalte</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="B101" t="str">
-            <v>hlthins</v>
-          </cell>
-          <cell r="C101" t="str">
-            <v>Beitraege an Krankenkassen (OKPV)</v>
-          </cell>
-        </row>
-        <row r="102">
-          <cell r="B102" t="str">
-            <v>ssrate</v>
-          </cell>
-          <cell r="C102" t="str">
-            <v>Anteil Sozialversicherungsbeitraege am Arbeitnehmereinkommen</v>
-          </cell>
-        </row>
-        <row r="103">
-          <cell r="B103" t="str">
-            <v>ssben</v>
-          </cell>
-          <cell r="C103" t="str">
-            <v>Sozialversicherungsleistungen (AHV, IV, OKPV, BV, ohne ALV)</v>
-          </cell>
-        </row>
-        <row r="104">
-          <cell r="B104" t="str">
-            <v>savpfund</v>
-          </cell>
-          <cell r="C104" t="str">
-            <v>Zunahme betrieblicher Versorgungsansprueche</v>
-          </cell>
-        </row>
-        <row r="105">
-          <cell r="B105" t="str">
-            <v>nettr</v>
-          </cell>
-          <cell r="C105" t="str">
-            <v>Restposten Uebertragungen an die Haushalte</v>
-          </cell>
-        </row>
-        <row r="106">
-          <cell r="B106" t="str">
-            <v>tdir</v>
-          </cell>
-          <cell r="C106" t="str">
-            <v>Direkte Steuern der privaten Haushalte</v>
-          </cell>
-        </row>
-        <row r="107">
-          <cell r="B107" t="str">
-            <v>unempr</v>
-          </cell>
-          <cell r="C107" t="str">
-            <v>ALV-Leistungen pro Arbeitsloser</v>
-          </cell>
-        </row>
-        <row r="108">
-          <cell r="B108" t="str">
-            <v>sscont</v>
-          </cell>
-          <cell r="C108" t="str">
-            <v>Sozialversicherungsbeitraege AHV, IV, ALV</v>
-          </cell>
-        </row>
-        <row r="109">
-          <cell r="B109" t="str">
-            <v>unempben</v>
-          </cell>
-          <cell r="C109" t="str">
-            <v>Leistungen der Arbeitslosenversicherung</v>
-          </cell>
-        </row>
-        <row r="110">
-          <cell r="B110" t="str">
-            <v>nettax</v>
-          </cell>
-          <cell r="C110" t="str">
-            <v>Nettosteuern</v>
-          </cell>
-        </row>
-        <row r="111">
-          <cell r="B111" t="str">
-            <v>ydispbr</v>
-          </cell>
-          <cell r="C111" t="str">
-            <v>Verfuegbares Einkommen (real), deflationiert mit Konsumdeflator</v>
-          </cell>
-        </row>
-        <row r="112">
-          <cell r="B112" t="str">
-            <v>saverate</v>
-          </cell>
-          <cell r="C112" t="str">
-            <v>Sparquote, inkl. betriebl. VS-ansprueche</v>
-          </cell>
-        </row>
-        <row r="113">
-          <cell r="B113" t="str">
-            <v>saveratefree</v>
-          </cell>
-          <cell r="C113" t="str">
-            <v>Sparquote (frei), exkl. betriebl. VS-ansprueche</v>
-          </cell>
-        </row>
-        <row r="114">
-          <cell r="B114" t="str">
-            <v>gdpos</v>
-          </cell>
-          <cell r="C114" t="str">
-            <v>BIP bereinigt um internationale Sportanlässe</v>
-          </cell>
-        </row>
-        <row r="115">
-          <cell r="B115" t="str">
-            <v>ngdpos</v>
-          </cell>
-          <cell r="C115" t="str">
-            <v>BIP bereinigt um internationale Sportanlässe, nominal</v>
-          </cell>
-        </row>
-        <row r="116">
-          <cell r="B116" t="str">
-            <v>pgdpos</v>
-          </cell>
-          <cell r="C116" t="str">
-            <v>BIP bereinigt um internationale Sportanlässe, deflator</v>
-          </cell>
-        </row>
-        <row r="117">
-          <cell r="B117" t="str">
-            <v>vaa</v>
-          </cell>
-          <cell r="C117" t="str">
-            <v>Land-, Forstwirtschaft und Fischerei</v>
-          </cell>
-        </row>
-        <row r="118">
-          <cell r="B118" t="str">
-            <v>vab</v>
-          </cell>
-          <cell r="C118" t="str">
-            <v>Bergbau und Gewinnung von Steinen und Erden</v>
-          </cell>
-        </row>
-        <row r="119">
-          <cell r="B119" t="str">
-            <v>vac</v>
-          </cell>
-          <cell r="C119" t="str">
-            <v>Verarbeitendes Gewerbe/Herstellung  von Waren</v>
-          </cell>
-        </row>
-        <row r="120">
-          <cell r="B120" t="str">
-            <v>vad</v>
-          </cell>
-          <cell r="C120" t="str">
-            <v>Energieversorgung</v>
-          </cell>
-        </row>
-        <row r="121">
-          <cell r="B121" t="str">
-            <v>vae</v>
-          </cell>
-          <cell r="C121" t="str">
-            <v>Wasserversorgung, Beseitigung von Umweltverschmutzung</v>
-          </cell>
-        </row>
-        <row r="122">
-          <cell r="B122" t="str">
-            <v>vaf</v>
-          </cell>
-          <cell r="C122" t="str">
-            <v>Baugewerbe/Bau</v>
-          </cell>
-        </row>
-        <row r="123">
-          <cell r="B123" t="str">
-            <v>vag</v>
-          </cell>
-          <cell r="C123" t="str">
-            <v>Handel; Instanthaltung und Reparatur von Kraftfahrzeugen</v>
-          </cell>
-        </row>
-        <row r="124">
-          <cell r="B124" t="str">
-            <v>vahj</v>
-          </cell>
-          <cell r="C124" t="str">
-            <v>Verkehr und Lagerei; Information und Kommunikation</v>
-          </cell>
-        </row>
-        <row r="125">
-          <cell r="B125" t="str">
-            <v>vai</v>
-          </cell>
-          <cell r="C125" t="str">
-            <v>Gastgewerbe und Beherbergung</v>
-          </cell>
-        </row>
-        <row r="126">
-          <cell r="B126" t="str">
-            <v>vak64</v>
-          </cell>
-          <cell r="C126" t="str">
-            <v>Finanzdienstleistungen</v>
-          </cell>
-        </row>
-        <row r="127">
-          <cell r="B127" t="str">
-            <v>vak65</v>
-          </cell>
-          <cell r="C127" t="str">
-            <v>Versicherungsdienstleistungen</v>
-          </cell>
-        </row>
-        <row r="128">
-          <cell r="B128" t="str">
-            <v>vak</v>
-          </cell>
-          <cell r="C128" t="str">
-            <v>Finanz und Versicherungsdienstleistungen</v>
-          </cell>
-        </row>
-        <row r="129">
-          <cell r="B129" t="str">
-            <v>valmn</v>
-          </cell>
-          <cell r="C129" t="str">
-            <v>Grundstück- und Wohnungswesen; Freiberufl., wiss., techn. und sonstige DL</v>
-          </cell>
-        </row>
-        <row r="130">
-          <cell r="B130" t="str">
-            <v>vao</v>
-          </cell>
-          <cell r="C130" t="str">
-            <v xml:space="preserve">Öffentliche Verwaltung </v>
-          </cell>
-        </row>
-        <row r="131">
-          <cell r="B131" t="str">
-            <v>vap</v>
-          </cell>
-          <cell r="C131" t="str">
-            <v>Erziehung und Unterricht</v>
-          </cell>
-        </row>
-        <row r="132">
-          <cell r="B132" t="str">
-            <v>vaq</v>
-          </cell>
-          <cell r="C132" t="str">
-            <v>Gesundheits- und Sozialwesen</v>
-          </cell>
-        </row>
-        <row r="133">
-          <cell r="B133" t="str">
-            <v>var</v>
-          </cell>
-          <cell r="C133" t="str">
-            <v>Kunst, Unterhaltung, und Erholung</v>
-          </cell>
-        </row>
-        <row r="134">
-          <cell r="B134" t="str">
-            <v>vas</v>
-          </cell>
-          <cell r="C134" t="str">
-            <v>Sonstige Dienstleistungen</v>
-          </cell>
-        </row>
-        <row r="135">
-          <cell r="B135" t="str">
-            <v>vat</v>
-          </cell>
-          <cell r="C135" t="str">
-            <v>Private Haushalte als Arbeitgeber und Hersteller von Waren für den Eigenbedarf</v>
-          </cell>
-        </row>
-        <row r="136">
-          <cell r="B136" t="str">
-            <v>varst</v>
-          </cell>
-          <cell r="C136" t="str">
-            <v>Veranstaltungen und Private DL</v>
-          </cell>
-        </row>
-        <row r="137">
-          <cell r="B137" t="str">
-            <v>varstos</v>
-          </cell>
-          <cell r="C137" t="str">
-            <v>Veranstaltungen und Private DL ohne Sport</v>
-          </cell>
-        </row>
-        <row r="138">
-          <cell r="B138" t="str">
-            <v>yctax</v>
-          </cell>
-          <cell r="C138" t="str">
-            <v>Guetersteuern</v>
-          </cell>
-        </row>
-        <row r="139">
-          <cell r="B139" t="str">
-            <v>ycsub</v>
-          </cell>
-          <cell r="C139" t="str">
-            <v>Guetersubventionen</v>
-          </cell>
-        </row>
-        <row r="140">
-          <cell r="B140" t="str">
-            <v>gdp_core</v>
-          </cell>
-          <cell r="C140" t="str">
-            <v>Bruttoinlandproduct bereinigt von Seco um Sportereignisse</v>
-          </cell>
-        </row>
-        <row r="141">
-          <cell r="B141" t="str">
-            <v>var_core</v>
-          </cell>
-          <cell r="C141" t="str">
-            <v>Kunst, Unterhaltung und Erholung ohne Sport, real</v>
-          </cell>
-        </row>
-        <row r="142">
-          <cell r="B142" t="str">
-            <v>vac19_21</v>
-          </cell>
-          <cell r="C142" t="str">
-            <v>Chemie/Pharma</v>
-          </cell>
-        </row>
-        <row r="143">
-          <cell r="B143" t="str">
-            <v>vacw19_21</v>
-          </cell>
-          <cell r="C143" t="str">
-            <v>Verarbeitendes Gewerbe ohne Chemie/Pharma</v>
-          </cell>
-        </row>
-        <row r="144">
-          <cell r="B144" t="str">
-            <v>vag47</v>
-          </cell>
-          <cell r="C144" t="str">
-            <v>Detailhandel</v>
-          </cell>
-        </row>
-        <row r="145">
-          <cell r="B145" t="str">
-            <v>vagw47</v>
-          </cell>
-          <cell r="C145" t="str">
-            <v>Grosshandel</v>
-          </cell>
-        </row>
-        <row r="146">
-          <cell r="B146" t="str">
-            <v>nvaa</v>
-          </cell>
-          <cell r="C146" t="str">
-            <v>Land-, Forstwirtschaft und Fischerei, nominal</v>
-          </cell>
-        </row>
-        <row r="147">
-          <cell r="B147" t="str">
-            <v>nvab</v>
-          </cell>
-          <cell r="C147" t="str">
-            <v>Bergbau und Gewinnung von Steinen und Erden, nominal</v>
-          </cell>
-        </row>
-        <row r="148">
-          <cell r="B148" t="str">
-            <v>nvac</v>
-          </cell>
-          <cell r="C148" t="str">
-            <v>Verarbeitendes Gewerbe/Herstellung  von Waren, nominal</v>
-          </cell>
-        </row>
-        <row r="149">
-          <cell r="B149" t="str">
-            <v>nvade</v>
-          </cell>
-          <cell r="C149" t="str">
-            <v>Energieversorgung</v>
-          </cell>
-        </row>
-        <row r="150">
-          <cell r="B150" t="str">
-            <v>nvae</v>
-          </cell>
-          <cell r="C150" t="str">
-            <v>Wasserversorgung, Beseitigung von Umweltverschmutzung</v>
-          </cell>
-        </row>
-        <row r="151">
-          <cell r="B151" t="str">
-            <v>nvaf</v>
-          </cell>
-          <cell r="C151" t="str">
-            <v>Baugewerbe/Bau, nominal</v>
-          </cell>
-        </row>
-        <row r="152">
-          <cell r="B152" t="str">
-            <v>nvag</v>
-          </cell>
-          <cell r="C152" t="str">
-            <v>Handel; Instanthaltung und Reparatur von Kraftfahrzeugen, nominal</v>
-          </cell>
-        </row>
-        <row r="153">
-          <cell r="B153" t="str">
-            <v>nvahj</v>
-          </cell>
-          <cell r="C153" t="str">
-            <v>Verkehr und Lagerei; Information und Kommunikation, nominal</v>
-          </cell>
-        </row>
-        <row r="154">
-          <cell r="B154" t="str">
-            <v>nvai</v>
-          </cell>
-          <cell r="C154" t="str">
-            <v>Gastgewerbe und Beherbergung, nominal</v>
-          </cell>
-        </row>
-        <row r="155">
-          <cell r="B155" t="str">
-            <v>nvak64</v>
-          </cell>
-          <cell r="C155" t="str">
-            <v>Finanzdienstleistungen, nominal</v>
-          </cell>
-        </row>
-        <row r="156">
-          <cell r="B156" t="str">
-            <v>nvak65</v>
-          </cell>
-          <cell r="C156" t="str">
-            <v>Versicherungsdienstleistungen, nominal</v>
-          </cell>
-        </row>
-        <row r="157">
-          <cell r="B157" t="str">
-            <v>nvalmn</v>
-          </cell>
-          <cell r="C157" t="str">
-            <v>Grundstück- und Wohnungswesen; Freiberufl., wiss., techn. und sonstige DL, nominal</v>
-          </cell>
-        </row>
-        <row r="158">
-          <cell r="B158" t="str">
-            <v>nvao</v>
-          </cell>
-          <cell r="C158" t="str">
-            <v>Öffentliche Verwaltung , nominal</v>
-          </cell>
-        </row>
-        <row r="159">
-          <cell r="B159" t="str">
-            <v>nvap</v>
-          </cell>
-          <cell r="C159" t="str">
-            <v>Erziehung und Unterricht, nominal</v>
-          </cell>
-        </row>
-        <row r="160">
-          <cell r="B160" t="str">
-            <v>nvaq</v>
-          </cell>
-          <cell r="C160" t="str">
-            <v>Gesundheits- und Sozialwesen, nominal</v>
-          </cell>
-        </row>
-        <row r="161">
-          <cell r="B161" t="str">
-            <v>nvar</v>
-          </cell>
-          <cell r="C161" t="str">
-            <v>Kunst, Unterhaltung, und Erholung</v>
-          </cell>
-        </row>
-        <row r="162">
-          <cell r="B162" t="str">
-            <v>nvas</v>
-          </cell>
-          <cell r="C162" t="str">
-            <v>Sonstige Dienstleistungen</v>
-          </cell>
-        </row>
-        <row r="163">
-          <cell r="B163" t="str">
-            <v>nvat</v>
-          </cell>
-          <cell r="C163" t="str">
-            <v>Private Haushalte als Arbeitgeber und Hersteller von Waren für den Eigenbedarf, nominal</v>
-          </cell>
-        </row>
-        <row r="164">
-          <cell r="B164" t="str">
-            <v>nyctax</v>
-          </cell>
-          <cell r="C164" t="str">
-            <v>Guetersteuern, nominal</v>
-          </cell>
-        </row>
-        <row r="165">
-          <cell r="B165" t="str">
-            <v>nycsub</v>
-          </cell>
-          <cell r="C165" t="str">
-            <v>Guetersubventionen, nominal</v>
-          </cell>
-        </row>
-        <row r="166">
-          <cell r="B166" t="str">
-            <v>ngdp_core</v>
-          </cell>
-          <cell r="C166" t="str">
-            <v>Bruttoinlandproduct bereinigt von Seco um Sportereignisse, nominal</v>
-          </cell>
-        </row>
-        <row r="167">
-          <cell r="B167" t="str">
-            <v>nvar_core</v>
-          </cell>
-          <cell r="C167" t="str">
-            <v>Kunst, Unterhaltung, Erholung und sonstige Dienstleistungen ohne Sport, nominal</v>
-          </cell>
-        </row>
-        <row r="168">
-          <cell r="B168" t="str">
-            <v>nvac19_21</v>
-          </cell>
-          <cell r="C168" t="str">
-            <v>Chemie/Pharma</v>
-          </cell>
-        </row>
-        <row r="169">
-          <cell r="B169" t="str">
-            <v>nvag47</v>
-          </cell>
-          <cell r="C169" t="str">
-            <v>Detailhandel</v>
-          </cell>
-        </row>
-        <row r="170">
-          <cell r="B170" t="str">
-            <v>vars_hja</v>
-          </cell>
-          <cell r="C170" t="str">
-            <v>Kunst, Unterhaltung, und Erholung, real, sa KMM</v>
-          </cell>
-        </row>
-        <row r="171">
-          <cell r="B171" t="str">
-            <v>nvars_hja</v>
-          </cell>
-          <cell r="C171" t="str">
-            <v>Kunst, Unterhaltung und Erholung, nom, sa KMM</v>
-          </cell>
-        </row>
-        <row r="172">
-          <cell r="B172" t="str">
-            <v>pvars_hja</v>
-          </cell>
-          <cell r="C172" t="str">
-            <v>Kunst, Unterhaltung und Erholung, defla, sa KMM</v>
-          </cell>
-        </row>
-        <row r="173">
-          <cell r="B173" t="str">
-            <v>varos</v>
-          </cell>
-          <cell r="C173" t="str">
-            <v>Kunst, Unterhaltung und Erholung ohne Sport, real, sa KMM</v>
-          </cell>
-        </row>
-        <row r="174">
-          <cell r="B174" t="str">
-            <v>vasport</v>
-          </cell>
-          <cell r="C174" t="str">
-            <v>Wertschöpfung Sport, real, sa, KMM</v>
-          </cell>
-        </row>
-        <row r="175">
-          <cell r="B175" t="str">
-            <v>varsos</v>
-          </cell>
-          <cell r="C175" t="str">
-            <v>Kunst, Unterhaltung und Erholung ohne Sport, real, sa KMM</v>
-          </cell>
-        </row>
-        <row r="176">
-          <cell r="B176" t="str">
-            <v>nvarsos</v>
-          </cell>
-          <cell r="C176" t="str">
-            <v>Kunst, Unterhaltung und Erholung ohne Sport, real, sa KMM</v>
-          </cell>
-        </row>
-        <row r="177">
-          <cell r="B177" t="str">
-            <v>nvaros</v>
-          </cell>
-          <cell r="C177" t="str">
-            <v>Kunst, Unterhaltung und Erholung ohne Sport, real, sa KMM</v>
-          </cell>
-        </row>
-        <row r="178">
-          <cell r="B178" t="str">
-            <v>ygov</v>
-          </cell>
-          <cell r="C178" t="str">
-            <v>Netto indirekte Steuern (abz. Subventionen)</v>
-          </cell>
-        </row>
-        <row r="179">
-          <cell r="B179" t="str">
-            <v>ybbu</v>
-          </cell>
-          <cell r="C179" t="str">
-            <v>Bruttobetriebsueberschuss Gesamtwirtschaft</v>
-          </cell>
-        </row>
-        <row r="180">
-          <cell r="B180" t="str">
-            <v>domdem2</v>
-          </cell>
-          <cell r="C180" t="str">
-            <v>Inlandnachfrage</v>
-          </cell>
-        </row>
-        <row r="181">
-          <cell r="B181" t="str">
-            <v>exc2</v>
-          </cell>
-          <cell r="C181" t="str">
-            <v>Warenexporte</v>
-          </cell>
-        </row>
-        <row r="182">
-          <cell r="B182" t="str">
-            <v>extot2</v>
-          </cell>
-          <cell r="C182" t="str">
-            <v>Exporte</v>
-          </cell>
-        </row>
-        <row r="183">
-          <cell r="B183" t="str">
-            <v>totdem2</v>
-          </cell>
-          <cell r="C183" t="str">
-            <v>Gesamtnachfrage</v>
-          </cell>
-        </row>
-        <row r="184">
-          <cell r="B184" t="str">
-            <v>imc2</v>
-          </cell>
-          <cell r="C184" t="str">
-            <v>Warenimporte</v>
-          </cell>
-        </row>
-        <row r="185">
-          <cell r="B185" t="str">
-            <v>imtot2</v>
-          </cell>
-          <cell r="C185" t="str">
-            <v>Importe</v>
-          </cell>
-        </row>
-        <row r="186">
-          <cell r="B186" t="str">
-            <v>ndomdem2</v>
-          </cell>
-          <cell r="C186" t="str">
-            <v>Inlandnachfrage, Nominal</v>
-          </cell>
-        </row>
-        <row r="187">
-          <cell r="B187" t="str">
-            <v>nexc2</v>
-          </cell>
-          <cell r="C187" t="str">
-            <v>Warenexporte, Nominal</v>
-          </cell>
-        </row>
-        <row r="188">
-          <cell r="B188" t="str">
-            <v>nextot2</v>
-          </cell>
-          <cell r="C188" t="str">
-            <v>Exporte, Nominal</v>
-          </cell>
-        </row>
-        <row r="189">
-          <cell r="B189" t="str">
-            <v>ntotdem2</v>
-          </cell>
-          <cell r="C189" t="str">
-            <v>Gesamtnachfrage, Nominal</v>
-          </cell>
-        </row>
-        <row r="190">
-          <cell r="B190" t="str">
-            <v>nimc2</v>
-          </cell>
-          <cell r="C190" t="str">
-            <v>Warenimporte, Nominal</v>
-          </cell>
-        </row>
-        <row r="191">
-          <cell r="B191" t="str">
-            <v>nimtot2</v>
-          </cell>
-          <cell r="C191" t="str">
-            <v>Importe, Nominal</v>
-          </cell>
-        </row>
-        <row r="192">
-          <cell r="B192" t="str">
-            <v>natinc</v>
-          </cell>
-          <cell r="C192" t="str">
-            <v>Bruttonationaleinkommen</v>
-          </cell>
-        </row>
-        <row r="193">
-          <cell r="B193" t="str">
-            <v>niival</v>
-          </cell>
-          <cell r="C193" t="str">
-            <v>Nettozugang Wertsachen</v>
-          </cell>
-        </row>
-        <row r="194">
-          <cell r="B194" t="str">
-            <v>pdomdem2</v>
-          </cell>
-          <cell r="C194" t="str">
-            <v>Inlandnachfrage, Deflator</v>
-          </cell>
-        </row>
-        <row r="195">
-          <cell r="B195" t="str">
-            <v>pexc2</v>
-          </cell>
-          <cell r="C195" t="str">
-            <v>Warenexporte, Deflator</v>
-          </cell>
-        </row>
-        <row r="196">
-          <cell r="B196" t="str">
-            <v>pextot2</v>
-          </cell>
-          <cell r="C196" t="str">
-            <v>Exporte, Deflator</v>
-          </cell>
-        </row>
-        <row r="197">
-          <cell r="B197" t="str">
-            <v>ptotdem2</v>
-          </cell>
-          <cell r="C197" t="str">
-            <v>Gesamtnachfrage, Deflator</v>
-          </cell>
-        </row>
-        <row r="198">
-          <cell r="B198" t="str">
-            <v>pimc2</v>
-          </cell>
-          <cell r="C198" t="str">
-            <v>Warenimporte, Deflator</v>
-          </cell>
-        </row>
-        <row r="199">
-          <cell r="B199" t="str">
-            <v>pimtot2</v>
-          </cell>
-          <cell r="C199" t="str">
-            <v>Importe, Deflator</v>
-          </cell>
-        </row>
-        <row r="200">
-          <cell r="B200" t="str">
-            <v>ebsp</v>
-          </cell>
-          <cell r="C200" t="str">
-            <v>D2 (V) Produktions- und Importabgaben (S2), quartalisiert</v>
-          </cell>
-        </row>
-        <row r="201">
-          <cell r="B201" t="str">
-            <v>ebsc</v>
-          </cell>
-          <cell r="C201" t="str">
-            <v>Saldo des Warenaustauschs (Exportueberschuss) (EXC1*PEXC1 - IMC1*PIMC1)/100</v>
-          </cell>
-        </row>
-        <row r="202">
-          <cell r="B202" t="str">
-            <v>ebss</v>
-          </cell>
-          <cell r="C202" t="str">
-            <v>Saldo des Diensleistungsbilanz: (EXS*PEXS-IMS*PIMS)/100, retropoliert mit erstem Jahr</v>
-          </cell>
-        </row>
-        <row r="203">
-          <cell r="B203" t="str">
-            <v>ebst</v>
-          </cell>
-          <cell r="C203" t="str">
-            <v>Saldo des Fremdenverkehrsbilanz: (EXT*PEXT - IMT*PIMT)/100, retropoliert mit erstem Jahr</v>
-          </cell>
-        </row>
-        <row r="204">
-          <cell r="B204" t="str">
-            <v>wkfreuro</v>
-          </cell>
-          <cell r="C204" t="str">
-            <v>Saldo des Fremdenverkehrsbilanz: (EXT*PEXT - IMT*PIMT)/100, retropoliert mit erstem Jahr</v>
-          </cell>
-        </row>
-        <row r="205">
-          <cell r="B205" t="str">
-            <v>vade</v>
-          </cell>
-          <cell r="C205" t="str">
-            <v>Energieversorgung; Beseitigung von Umweltschäden</v>
-          </cell>
-        </row>
-        <row r="206">
-          <cell r="B206" t="str">
-            <v>gdppot</v>
-          </cell>
-          <cell r="C206" t="str">
-            <v>Energieversorgung; Beseitigung von Umweltschäden</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3151,13 +1609,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BD2C4C4-D9F4-4EF9-82F9-9FED93FA270D}">
   <dimension ref="A1:EK134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A135" sqref="A135:XFD150"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:141" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -3579,7 +2037,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="2" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:141" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>312</v>
       </c>
@@ -3682,271 +2140,206 @@
       <c r="AI2" t="s">
         <v>36</v>
       </c>
-      <c r="AJ2" t="str">
-        <f>_xlfn.XLOOKUP(AJ1,[1]koma!$B$1:$B$206,[1]koma!$C$1:$C$206,1)</f>
-        <v>Konsum Private Haushalte und POoE, Real, csa</v>
-      </c>
-      <c r="AK2" t="str">
-        <f>_xlfn.XLOOKUP(AK1,[1]koma!$B$1:$B$206,[1]koma!$C$1:$C$206,1)</f>
-        <v>Staatskonsum, Real, csa</v>
-      </c>
-      <c r="AL2" t="str">
-        <f>_xlfn.XLOOKUP(AL1,[1]koma!$B$1:$B$206,[1]koma!$C$1:$C$206,1)</f>
-        <v>Bauinvestitionen, Real, csa</v>
-      </c>
-      <c r="AM2" t="str">
-        <f>_xlfn.XLOOKUP(AM1,[1]koma!$B$1:$B$206,[1]koma!$C$1:$C$206,1)</f>
-        <v>Ausrüstungen, Real, csa</v>
-      </c>
-      <c r="AN2" t="str">
-        <f>_xlfn.XLOOKUP(AN1,[1]koma!$B$1:$B$206,[1]koma!$C$1:$C$206,1)</f>
-        <v>Warenexporte  ohne n. m. Gold, Transith. u. Wertsachen, Real, csa</v>
-      </c>
-      <c r="AO2" t="str">
-        <f>_xlfn.XLOOKUP(AO1,[1]koma!$B$1:$B$206,[1]koma!$C$1:$C$206,1)</f>
-        <v>Exporte, Transithandel</v>
-      </c>
-      <c r="AP2" t="str">
-        <f>_xlfn.XLOOKUP(AP1,[1]koma!$B$1:$B$206,[1]koma!$C$1:$C$206,1)</f>
-        <v>Exporte, Tourismus, real</v>
-      </c>
-      <c r="AQ2" t="str">
-        <f>_xlfn.XLOOKUP(AQ1,[1]koma!$B$1:$B$206,[1]koma!$C$1:$C$206,1)</f>
-        <v>Dienstleistungsexporte inkl. Tourismus, real, csa</v>
-      </c>
-      <c r="AR2" t="str">
-        <f>_xlfn.XLOOKUP(AR1,[1]koma!$B$1:$B$206,[1]koma!$C$1:$C$206,1)</f>
-        <v>Warenimporte ohne n. m. Gold u. Wertsachen, Real, csa</v>
-      </c>
-      <c r="AS2" t="str">
-        <f>_xlfn.XLOOKUP(AS1,[1]koma!$B$1:$B$206,[1]koma!$C$1:$C$206,1)</f>
-        <v>Importe, Services, real</v>
-      </c>
-      <c r="AT2" t="str">
-        <f>_xlfn.XLOOKUP(AT1,[1]koma!$B$1:$B$206,[1]koma!$C$1:$C$206,1)</f>
-        <v>Importe, Tourismus, real</v>
-      </c>
-      <c r="AU2" t="str">
-        <f>_xlfn.XLOOKUP(AU1,[1]koma!$B$1:$B$206,[1]koma!$C$1:$C$206,1)</f>
-        <v>Dienstleistungsimporte inkl. Tourismus, real, csa</v>
-      </c>
-      <c r="AV2" t="str">
-        <f>_xlfn.XLOOKUP(AV1,[1]koma!$B$1:$B$206,[1]koma!$C$1:$C$206,1)</f>
-        <v>Konsumnachfrage</v>
-      </c>
-      <c r="AW2" t="str">
-        <f>_xlfn.XLOOKUP(AW1,[1]koma!$B$1:$B$206,[1]koma!$C$1:$C$206,1)</f>
-        <v>Bruttoanlageinvestitionen, real, csa</v>
-      </c>
-      <c r="AX2" t="str">
-        <f>_xlfn.XLOOKUP(AX1,[1]koma!$B$1:$B$206,[1]koma!$C$1:$C$206,1)</f>
-        <v>Inländische Nachfrage</v>
-      </c>
-      <c r="AY2" t="str">
-        <f>_xlfn.XLOOKUP(AY1,[1]koma!$B$1:$B$206,[1]koma!$C$1:$C$206,1)</f>
-        <v>Inländische Nachfrage</v>
-      </c>
-      <c r="AZ2" t="str">
-        <f>_xlfn.XLOOKUP(AZ1,[1]koma!$B$1:$B$206,[1]koma!$C$1:$C$206,1)</f>
-        <v>Waren und Diensleistungsexporte ohne n. m. Gold u. Wertsachen, real, sa</v>
-      </c>
-      <c r="BA2" t="str">
-        <f>_xlfn.XLOOKUP(BA1,[1]koma!$B$1:$B$206,[1]koma!$C$1:$C$206,1)</f>
-        <v>Gesamtnachfrage ohne n. m. Gold u. Wertsachen, real, csa</v>
-      </c>
-      <c r="BB2" t="str">
-        <f>_xlfn.XLOOKUP(BB1,[1]koma!$B$1:$B$206,[1]koma!$C$1:$C$206,1)</f>
-        <v>Waren und Diensleistungsimporte ohne n. m. Gold u. Wertsachen, real, sa</v>
-      </c>
-      <c r="BC2" t="str">
-        <f>_xlfn.XLOOKUP(BC1,[1]koma!$B$1:$B$206,[1]koma!$C$1:$C$206,1)</f>
-        <v>Bruttoinlandprodukt, real, csa</v>
-      </c>
-      <c r="BD2" t="str">
-        <f>_xlfn.XLOOKUP(BD1,[1]koma!$B$1:$B$206,[1]koma!$C$1:$C$206,1)</f>
-        <v>Wertschöpfung Sport, real, sa, KMM</v>
+      <c r="AJ2" t="s">
+        <v>346</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>347</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>348</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>349</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>350</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>351</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>352</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>353</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>354</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>355</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>356</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>357</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>359</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>360</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>360</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>361</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>362</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>363</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>364</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>365</v>
       </c>
       <c r="BE2" t="s">
         <v>345</v>
       </c>
-      <c r="BF2" t="str">
-        <f>_xlfn.XLOOKUP(BF1,[1]koma!$B$1:$B$206,[1]koma!$C$1:$C$206,1)</f>
-        <v>Bruttoinlandprodukt ohne Lager, real, csa</v>
-      </c>
-      <c r="BG2" t="str">
-        <f>_xlfn.XLOOKUP(BG1,[1]koma!$B$1:$B$206,[1]koma!$C$1:$C$206,1)</f>
-        <v>Konsum Private Haushalte und POoE, Delfator, csa</v>
-      </c>
-      <c r="BH2" t="str">
-        <f>_xlfn.XLOOKUP(BH1,[1]koma!$B$1:$B$206,[1]koma!$C$1:$C$206,1)</f>
-        <v>Staatskonsum, Delfator, csa</v>
-      </c>
-      <c r="BI2" t="str">
-        <f>_xlfn.XLOOKUP(BI1,[1]koma!$B$1:$B$206,[1]koma!$C$1:$C$206,1)</f>
-        <v>Bauinvestitionen, Delfator, csa</v>
-      </c>
-      <c r="BJ2" t="str">
-        <f>_xlfn.XLOOKUP(BJ1,[1]koma!$B$1:$B$206,[1]koma!$C$1:$C$206,1)</f>
-        <v>Ausrüstungen, Delfator, csa</v>
-      </c>
-      <c r="BK2" t="str">
-        <f>_xlfn.XLOOKUP(BK1,[1]koma!$B$1:$B$206,[1]koma!$C$1:$C$206,1)</f>
-        <v>Warenexporte  ohne n. m. Gold, Transith. u. Wertsachen, Delfator, csa</v>
-      </c>
-      <c r="BL2" t="str">
-        <f>_xlfn.XLOOKUP(BL1,[1]koma!$B$1:$B$206,[1]koma!$C$1:$C$206,1)</f>
-        <v>Exporte, Transithandel</v>
-      </c>
-      <c r="BM2" t="str">
-        <f>_xlfn.XLOOKUP(BM1,[1]koma!$B$1:$B$206,[1]koma!$C$1:$C$206,1)</f>
-        <v>Exporte, Tourismus, Delfator</v>
-      </c>
-      <c r="BN2" t="str">
-        <f>_xlfn.XLOOKUP(BN1,[1]koma!$B$1:$B$206,[1]koma!$C$1:$C$206,1)</f>
-        <v>Dienstleistungsexporte inkl. Tourismus, deflator, csa</v>
-      </c>
-      <c r="BO2" t="str">
-        <f>_xlfn.XLOOKUP(BO1,[1]koma!$B$1:$B$206,[1]koma!$C$1:$C$206,1)</f>
-        <v>Warenimporte ohne n. m. Gold u. Wertsachen, Delfator, csa</v>
-      </c>
-      <c r="BP2" t="str">
-        <f>_xlfn.XLOOKUP(BP1,[1]koma!$B$1:$B$206,[1]koma!$C$1:$C$206,1)</f>
-        <v>Importe, Services, Delfator</v>
-      </c>
-      <c r="BQ2" t="str">
-        <f>_xlfn.XLOOKUP(BQ1,[1]koma!$B$1:$B$206,[1]koma!$C$1:$C$206,1)</f>
-        <v>Importe, Tourismus, Delfator</v>
-      </c>
-      <c r="BR2" t="str">
-        <f>_xlfn.XLOOKUP(BR1,[1]koma!$B$1:$B$206,[1]koma!$C$1:$C$206,1)</f>
-        <v>Dienstleistungsimporte inkl. Tourismus, deflator, csa</v>
-      </c>
-      <c r="BS2" t="str">
-        <f>_xlfn.XLOOKUP(BS1,[1]koma!$B$1:$B$206,[1]koma!$C$1:$C$206,1)</f>
-        <v>Konsumnachfrage</v>
-      </c>
-      <c r="BT2" t="str">
-        <f>_xlfn.XLOOKUP(BT1,[1]koma!$B$1:$B$206,[1]koma!$C$1:$C$206,1)</f>
-        <v>Bruttoanlageinvestitionen, deflator, csa</v>
-      </c>
-      <c r="BU2" t="str">
-        <f>_xlfn.XLOOKUP(BU1,[1]koma!$B$1:$B$206,[1]koma!$C$1:$C$206,1)</f>
-        <v>pdomdemoi</v>
-      </c>
-      <c r="BV2" t="str">
-        <f>_xlfn.XLOOKUP(BV1,[1]koma!$B$1:$B$206,[1]koma!$C$1:$C$206,1)</f>
-        <v>Inländische Nachfrage</v>
-      </c>
-      <c r="BW2" t="str">
-        <f>_xlfn.XLOOKUP(BW1,[1]koma!$B$1:$B$206,[1]koma!$C$1:$C$206,1)</f>
-        <v>Waren und Diensleistungsexporte ohne n. m. Gold u. Wertsachen, deflator, sa</v>
-      </c>
-      <c r="BX2" t="str">
-        <f>_xlfn.XLOOKUP(BX1,[1]koma!$B$1:$B$206,[1]koma!$C$1:$C$206,1)</f>
-        <v>ptotdem</v>
-      </c>
-      <c r="BY2" t="str">
-        <f>_xlfn.XLOOKUP(BY1,[1]koma!$B$1:$B$206,[1]koma!$C$1:$C$206,1)</f>
-        <v>Waren und Diensleistungsimporte ohne n. m. Gold u. Wertsachen, deflator, sa</v>
-      </c>
-      <c r="BZ2" t="str">
-        <f>_xlfn.XLOOKUP(BZ1,[1]koma!$B$1:$B$206,[1]koma!$C$1:$C$206,1)</f>
-        <v>BIP bereinigt um internationale Sportanlässe, deflator</v>
-      </c>
-      <c r="CA2" t="str">
-        <f>_xlfn.XLOOKUP(CA1,[1]koma!$B$1:$B$206,[1]koma!$C$1:$C$206,1)</f>
-        <v>BIP, Deflator, sa</v>
+      <c r="BF2" t="s">
+        <v>366</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>367</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>368</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>369</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>370</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>371</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>351</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>372</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>373</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>374</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>375</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>376</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>377</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>358</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>378</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>206</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>360</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>379</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>209</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>380</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>381</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>382</v>
       </c>
       <c r="CB2" t="s">
         <v>344</v>
       </c>
-      <c r="CC2" t="str">
-        <f>_xlfn.XLOOKUP(CC1,[1]koma!$B$1:$B$206,[1]koma!$C$1:$C$206,1)</f>
-        <v>Konsum Private Haushalte und POoE, nominal, csa</v>
-      </c>
-      <c r="CD2" t="str">
-        <f>_xlfn.XLOOKUP(CD1,[1]koma!$B$1:$B$206,[1]koma!$C$1:$C$206,1)</f>
-        <v>Staatskonsum, nominal, csa</v>
-      </c>
-      <c r="CE2" t="str">
-        <f>_xlfn.XLOOKUP(CE1,[1]koma!$B$1:$B$206,[1]koma!$C$1:$C$206,1)</f>
-        <v>Bauinvestitionen, nominal, csa</v>
-      </c>
-      <c r="CF2" t="str">
-        <f>_xlfn.XLOOKUP(CF1,[1]koma!$B$1:$B$206,[1]koma!$C$1:$C$206,1)</f>
-        <v>Ausrüstungen, nominal, csa</v>
-      </c>
-      <c r="CG2" t="str">
-        <f>_xlfn.XLOOKUP(CG1,[1]koma!$B$1:$B$206,[1]koma!$C$1:$C$206,1)</f>
-        <v>Warenexporte  ohne n. m. Gold, Transith. u. Wertsachen, nominal, csa</v>
-      </c>
-      <c r="CH2" t="str">
-        <f>_xlfn.XLOOKUP(CH1,[1]koma!$B$1:$B$206,[1]koma!$C$1:$C$206,1)</f>
-        <v>Exporte, Transithandel</v>
-      </c>
-      <c r="CI2" t="str">
-        <f>_xlfn.XLOOKUP(CI1,[1]koma!$B$1:$B$206,[1]koma!$C$1:$C$206,1)</f>
-        <v>Exporte, Tourismus, nominal</v>
-      </c>
-      <c r="CJ2" t="str">
-        <f>_xlfn.XLOOKUP(CJ1,[1]koma!$B$1:$B$206,[1]koma!$C$1:$C$206,1)</f>
-        <v>Dienstleistungsexporte inkl. Tourismus, nominal, csa</v>
-      </c>
-      <c r="CK2" t="str">
-        <f>_xlfn.XLOOKUP(CK1,[1]koma!$B$1:$B$206,[1]koma!$C$1:$C$206,1)</f>
-        <v>Warenimporte ohne n. m. Gold u. Wertsachen, nominal, csa</v>
-      </c>
-      <c r="CL2" t="str">
-        <f>_xlfn.XLOOKUP(CL1,[1]koma!$B$1:$B$206,[1]koma!$C$1:$C$206,1)</f>
-        <v>Importe, Services, nominal</v>
-      </c>
-      <c r="CM2" t="str">
-        <f>_xlfn.XLOOKUP(CM1,[1]koma!$B$1:$B$206,[1]koma!$C$1:$C$206,1)</f>
-        <v>Importe, Tourismus, nominal</v>
-      </c>
-      <c r="CN2" t="str">
-        <f>_xlfn.XLOOKUP(CN1,[1]koma!$B$1:$B$206,[1]koma!$C$1:$C$206,1)</f>
-        <v>Dienstleistungsimporte inkl. Tourismus, nominal, csa</v>
-      </c>
-      <c r="CO2" t="str">
-        <f>_xlfn.XLOOKUP(CO1,[1]koma!$B$1:$B$206,[1]koma!$C$1:$C$206,1)</f>
-        <v>Konsumnachfrage</v>
-      </c>
-      <c r="CP2" t="str">
-        <f>_xlfn.XLOOKUP(CP1,[1]koma!$B$1:$B$206,[1]koma!$C$1:$C$206,1)</f>
-        <v>Bruttoanlageinvestitionen, nominal, csa</v>
-      </c>
-      <c r="CQ2" t="str">
-        <f>_xlfn.XLOOKUP(CQ1,[1]koma!$B$1:$B$206,[1]koma!$C$1:$C$206,1)</f>
-        <v>ndomdemoi</v>
-      </c>
-      <c r="CR2" t="str">
-        <f>_xlfn.XLOOKUP(CR1,[1]koma!$B$1:$B$206,[1]koma!$C$1:$C$206,1)</f>
-        <v>Inländische Nachfrage</v>
-      </c>
-      <c r="CS2" t="str">
-        <f>_xlfn.XLOOKUP(CS1,[1]koma!$B$1:$B$206,[1]koma!$C$1:$C$206,1)</f>
-        <v>Waren und Diensleistungsexporte ohne n. m. Gold u. Wertsachen, nominal, sa</v>
-      </c>
-      <c r="CT2" t="str">
-        <f>_xlfn.XLOOKUP(CT1,[1]koma!$B$1:$B$206,[1]koma!$C$1:$C$206,1)</f>
-        <v>ntotdem</v>
-      </c>
-      <c r="CU2" t="str">
-        <f>_xlfn.XLOOKUP(CU1,[1]koma!$B$1:$B$206,[1]koma!$C$1:$C$206,1)</f>
-        <v>Waren und Diensleistungsimporte ohne n. m. Gold u. Wertsachen, nominal, sa</v>
-      </c>
-      <c r="CV2" t="str">
-        <f>_xlfn.XLOOKUP(CV1,[1]koma!$B$1:$B$206,[1]koma!$C$1:$C$206,1)</f>
-        <v>BIP bereinigt um internationale Sportanlässe, nominal</v>
-      </c>
-      <c r="CW2" t="str">
-        <f>_xlfn.XLOOKUP(CW1,[1]koma!$B$1:$B$206,[1]koma!$C$1:$C$206,1)</f>
-        <v>Bruttoinlandprodukt, nominal, csa</v>
-      </c>
-      <c r="CX2" t="str">
-        <f>_xlfn.XLOOKUP(CX1,[1]koma!$B$1:$B$206,[1]koma!$C$1:$C$206,1)</f>
-        <v>Lagervänderungen inkl. Stat Differenz</v>
+      <c r="CC2" t="s">
+        <v>383</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>384</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>385</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>386</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>387</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>351</v>
+      </c>
+      <c r="CI2" t="s">
+        <v>388</v>
+      </c>
+      <c r="CJ2" t="s">
+        <v>389</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>390</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>391</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>392</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>393</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>358</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>394</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>228</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>360</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>395</v>
+      </c>
+      <c r="CT2" t="s">
+        <v>231</v>
+      </c>
+      <c r="CU2" t="s">
+        <v>396</v>
+      </c>
+      <c r="CV2" t="s">
+        <v>397</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>398</v>
+      </c>
+      <c r="CX2" t="s">
+        <v>399</v>
       </c>
       <c r="CY2" t="s">
         <v>275</v>
@@ -4066,7 +2459,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="3" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -4470,7 +2863,7 @@
         <v>29653867819.4772</v>
       </c>
     </row>
-    <row r="4" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -4874,7 +3267,7 @@
         <v>29658921401.075401</v>
       </c>
     </row>
-    <row r="5" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>39</v>
       </c>
@@ -5278,7 +3671,7 @@
         <v>29721362926.9702</v>
       </c>
     </row>
-    <row r="6" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -5682,7 +4075,7 @@
         <v>29756763261.672501</v>
       </c>
     </row>
-    <row r="7" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -6086,7 +4479,7 @@
         <v>29742125235.459702</v>
       </c>
     </row>
-    <row r="8" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -6490,7 +4883,7 @@
         <v>29820111533.2929</v>
       </c>
     </row>
-    <row r="9" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>43</v>
       </c>
@@ -6894,7 +5287,7 @@
         <v>29970454939.841801</v>
       </c>
     </row>
-    <row r="10" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>44</v>
       </c>
@@ -7298,7 +5691,7 @@
         <v>30085626569.927101</v>
       </c>
     </row>
-    <row r="11" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>45</v>
       </c>
@@ -7702,7 +6095,7 @@
         <v>30360356449.763901</v>
       </c>
     </row>
-    <row r="12" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -8106,7 +6499,7 @@
         <v>30556870130.834499</v>
       </c>
     </row>
-    <row r="13" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>47</v>
       </c>
@@ -8510,7 +6903,7 @@
         <v>30735493203.148399</v>
       </c>
     </row>
-    <row r="14" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -8914,7 +7307,7 @@
         <v>30971756878.257301</v>
       </c>
     </row>
-    <row r="15" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -9339,7 +7732,7 @@
         <v>31029985291.2118</v>
       </c>
     </row>
-    <row r="16" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -9764,7 +8157,7 @@
         <v>31229448122.4006</v>
       </c>
     </row>
-    <row r="17" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>51</v>
       </c>
@@ -10189,7 +8582,7 @@
         <v>31378310192.7024</v>
       </c>
     </row>
-    <row r="18" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>52</v>
       </c>
@@ -10614,7 +9007,7 @@
         <v>31514823815.122398</v>
       </c>
     </row>
-    <row r="19" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>53</v>
       </c>
@@ -11039,7 +9432,7 @@
         <v>31655896432.484798</v>
       </c>
     </row>
-    <row r="20" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>54</v>
       </c>
@@ -11464,7 +9857,7 @@
         <v>31954383437.503799</v>
       </c>
     </row>
-    <row r="21" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>55</v>
       </c>
@@ -11889,7 +10282,7 @@
         <v>32152335650.891201</v>
       </c>
     </row>
-    <row r="22" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>56</v>
       </c>
@@ -12314,7 +10707,7 @@
         <v>32392159600.923302</v>
       </c>
     </row>
-    <row r="23" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>57</v>
       </c>
@@ -12739,7 +11132,7 @@
         <v>32557718870.203999</v>
       </c>
     </row>
-    <row r="24" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>58</v>
       </c>
@@ -13164,7 +11557,7 @@
         <v>32945741070.9646</v>
       </c>
     </row>
-    <row r="25" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>59</v>
       </c>
@@ -13589,7 +11982,7 @@
         <v>33181420577.1101</v>
       </c>
     </row>
-    <row r="26" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>60</v>
       </c>
@@ -14014,7 +12407,7 @@
         <v>33426721283.587898</v>
       </c>
     </row>
-    <row r="27" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>61</v>
       </c>
@@ -14439,7 +12832,7 @@
         <v>33553693813.476501</v>
       </c>
     </row>
-    <row r="28" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>62</v>
       </c>
@@ -14864,7 +13257,7 @@
         <v>33624851539.1516</v>
       </c>
     </row>
-    <row r="29" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>63</v>
       </c>
@@ -15289,7 +13682,7 @@
         <v>33793387010.327301</v>
       </c>
     </row>
-    <row r="30" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>64</v>
       </c>
@@ -15714,7 +14107,7 @@
         <v>33964160417.907398</v>
       </c>
     </row>
-    <row r="31" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>65</v>
       </c>
@@ -16139,7 +14532,7 @@
         <v>34246386016.135101</v>
       </c>
     </row>
-    <row r="32" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>66</v>
       </c>
@@ -16564,7 +14957,7 @@
         <v>34438942606.945396</v>
       </c>
     </row>
-    <row r="33" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>67</v>
       </c>
@@ -16989,7 +15382,7 @@
         <v>34866715785.218102</v>
       </c>
     </row>
-    <row r="34" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>68</v>
       </c>
@@ -17414,7 +15807,7 @@
         <v>35260411642.837303</v>
       </c>
     </row>
-    <row r="35" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>69</v>
       </c>
@@ -17839,7 +16232,7 @@
         <v>35690481442.527901</v>
       </c>
     </row>
-    <row r="36" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>70</v>
       </c>
@@ -18264,7 +16657,7 @@
         <v>36065446094.964203</v>
       </c>
     </row>
-    <row r="37" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>71</v>
       </c>
@@ -18689,7 +17082,7 @@
         <v>36283213591.597801</v>
       </c>
     </row>
-    <row r="38" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>72</v>
       </c>
@@ -19114,7 +17507,7 @@
         <v>36443472348.378601</v>
       </c>
     </row>
-    <row r="39" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>73</v>
       </c>
@@ -19539,7 +17932,7 @@
         <v>36705308877.905602</v>
       </c>
     </row>
-    <row r="40" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>74</v>
       </c>
@@ -19964,7 +18357,7 @@
         <v>36703070903.633797</v>
       </c>
     </row>
-    <row r="41" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>75</v>
       </c>
@@ -20389,7 +18782,7 @@
         <v>36727554608.9664</v>
       </c>
     </row>
-    <row r="42" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>76</v>
       </c>
@@ -20814,7 +19207,7 @@
         <v>36754174214.896004</v>
       </c>
     </row>
-    <row r="43" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>77</v>
       </c>
@@ -21239,7 +19632,7 @@
         <v>36904257145.054604</v>
       </c>
     </row>
-    <row r="44" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>78</v>
       </c>
@@ -21664,7 +20057,7 @@
         <v>37155207992.220703</v>
       </c>
     </row>
-    <row r="45" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>79</v>
       </c>
@@ -22089,7 +20482,7 @@
         <v>37355004065.775902</v>
       </c>
     </row>
-    <row r="46" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>80</v>
       </c>
@@ -22514,7 +20907,7 @@
         <v>37458512902.896797</v>
       </c>
     </row>
-    <row r="47" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>81</v>
       </c>
@@ -22939,7 +21332,7 @@
         <v>37464041203.993896</v>
       </c>
     </row>
-    <row r="48" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>82</v>
       </c>
@@ -23364,7 +21757,7 @@
         <v>37532605984.460503</v>
       </c>
     </row>
-    <row r="49" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>83</v>
       </c>
@@ -23789,7 +22182,7 @@
         <v>37954193581.838799</v>
       </c>
     </row>
-    <row r="50" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>84</v>
       </c>
@@ -24214,7 +22607,7 @@
         <v>38274691569.459198</v>
       </c>
     </row>
-    <row r="51" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>85</v>
       </c>
@@ -24639,7 +23032,7 @@
         <v>38553448522.507599</v>
       </c>
     </row>
-    <row r="52" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>86</v>
       </c>
@@ -25064,7 +23457,7 @@
         <v>38836765593.0718</v>
       </c>
     </row>
-    <row r="53" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>87</v>
       </c>
@@ -25489,7 +23882,7 @@
         <v>39023656390.6782</v>
       </c>
     </row>
-    <row r="54" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>88</v>
       </c>
@@ -25914,7 +24307,7 @@
         <v>39256186165.512901</v>
       </c>
     </row>
-    <row r="55" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>89</v>
       </c>
@@ -26339,7 +24732,7 @@
         <v>39481428035.213501</v>
       </c>
     </row>
-    <row r="56" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>90</v>
       </c>
@@ -26764,7 +25157,7 @@
         <v>39806242226.011398</v>
       </c>
     </row>
-    <row r="57" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>91</v>
       </c>
@@ -27189,7 +25582,7 @@
         <v>40161132338.082603</v>
       </c>
     </row>
-    <row r="58" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>92</v>
       </c>
@@ -27614,7 +26007,7 @@
         <v>40518235365.285301</v>
       </c>
     </row>
-    <row r="59" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>93</v>
       </c>
@@ -28039,7 +26432,7 @@
         <v>40935953731.778198</v>
       </c>
     </row>
-    <row r="60" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>94</v>
       </c>
@@ -28464,7 +26857,7 @@
         <v>41353099596.945602</v>
       </c>
     </row>
-    <row r="61" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>95</v>
       </c>
@@ -28889,7 +27282,7 @@
         <v>41616057256.2369</v>
       </c>
     </row>
-    <row r="62" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>96</v>
       </c>
@@ -29314,7 +27707,7 @@
         <v>42114530030.002602</v>
       </c>
     </row>
-    <row r="63" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>97</v>
       </c>
@@ -29739,7 +28132,7 @@
         <v>42455694801.048599</v>
       </c>
     </row>
-    <row r="64" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>98</v>
       </c>
@@ -30164,7 +28557,7 @@
         <v>42781915857.064102</v>
       </c>
     </row>
-    <row r="65" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>99</v>
       </c>
@@ -30589,7 +28982,7 @@
         <v>43049729487.3592</v>
       </c>
     </row>
-    <row r="66" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>100</v>
       </c>
@@ -31014,7 +29407,7 @@
         <v>43380870796.338997</v>
       </c>
     </row>
-    <row r="67" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>101</v>
       </c>
@@ -31439,7 +29832,7 @@
         <v>43663780545.135803</v>
       </c>
     </row>
-    <row r="68" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>102</v>
       </c>
@@ -31864,7 +30257,7 @@
         <v>43571700057.2621</v>
       </c>
     </row>
-    <row r="69" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>103</v>
       </c>
@@ -32289,7 +30682,7 @@
         <v>43350012939.902298</v>
       </c>
     </row>
-    <row r="70" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>104</v>
       </c>
@@ -32714,7 +31107,7 @@
         <v>42616018873.766602</v>
       </c>
     </row>
-    <row r="71" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>105</v>
       </c>
@@ -33139,7 +31532,7 @@
         <v>41500251398.866997</v>
       </c>
     </row>
-    <row r="72" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>106</v>
       </c>
@@ -33564,7 +31957,7 @@
         <v>41678735520.628601</v>
       </c>
     </row>
-    <row r="73" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>107</v>
       </c>
@@ -33989,7 +32382,7 @@
         <v>41949817773.214897</v>
       </c>
     </row>
-    <row r="74" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>108</v>
       </c>
@@ -34414,7 +32807,7 @@
         <v>42306699930.003304</v>
       </c>
     </row>
-    <row r="75" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>109</v>
       </c>
@@ -34839,7 +33232,7 @@
         <v>42610542236.028503</v>
       </c>
     </row>
-    <row r="76" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>110</v>
       </c>
@@ -35264,7 +33657,7 @@
         <v>43165388457.688103</v>
       </c>
     </row>
-    <row r="77" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>111</v>
       </c>
@@ -35689,7 +34082,7 @@
         <v>43484140697.219803</v>
       </c>
     </row>
-    <row r="78" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>112</v>
       </c>
@@ -36114,7 +34507,7 @@
         <v>43838367049.858498</v>
       </c>
     </row>
-    <row r="79" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>113</v>
       </c>
@@ -36539,7 +34932,7 @@
         <v>44264805012.097099</v>
       </c>
     </row>
-    <row r="80" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>114</v>
       </c>
@@ -36964,7 +35357,7 @@
         <v>44399735219.192001</v>
       </c>
     </row>
-    <row r="81" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>115</v>
       </c>
@@ -37389,7 +35782,7 @@
         <v>44604351911.709801</v>
       </c>
     </row>
-    <row r="82" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>116</v>
       </c>
@@ -37814,7 +36207,7 @@
         <v>44702040698.783302</v>
       </c>
     </row>
-    <row r="83" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>117</v>
       </c>
@@ -38239,7 +36632,7 @@
         <v>44890248269.622597</v>
       </c>
     </row>
-    <row r="84" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>118</v>
       </c>
@@ -38664,7 +37057,7 @@
         <v>44929928688.500298</v>
       </c>
     </row>
-    <row r="85" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>119</v>
       </c>
@@ -39089,7 +37482,7 @@
         <v>45036188826.382401</v>
       </c>
     </row>
-    <row r="86" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>120</v>
       </c>
@@ -39514,7 +37907,7 @@
         <v>45064168424.795502</v>
       </c>
     </row>
-    <row r="87" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>121</v>
       </c>
@@ -39939,7 +38332,7 @@
         <v>45164150218.454597</v>
       </c>
     </row>
-    <row r="88" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>122</v>
       </c>
@@ -40364,7 +38757,7 @@
         <v>45514929724.6437</v>
       </c>
     </row>
-    <row r="89" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>123</v>
       </c>
@@ -40789,7 +39182,7 @@
         <v>45814694483.856598</v>
       </c>
     </row>
-    <row r="90" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>124</v>
       </c>
@@ -41214,7 +39607,7 @@
         <v>46050988556.3302</v>
       </c>
     </row>
-    <row r="91" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>125</v>
       </c>
@@ -41639,7 +40032,7 @@
         <v>46291516111.682999</v>
       </c>
     </row>
-    <row r="92" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>126</v>
       </c>
@@ -42064,7 +40457,7 @@
         <v>46495088602.447403</v>
       </c>
     </row>
-    <row r="93" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>127</v>
       </c>
@@ -42489,7 +40882,7 @@
         <v>46818061545.468697</v>
       </c>
     </row>
-    <row r="94" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>128</v>
       </c>
@@ -42914,7 +41307,7 @@
         <v>47080993307.181297</v>
       </c>
     </row>
-    <row r="95" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>129</v>
       </c>
@@ -43339,7 +41732,7 @@
         <v>47374209207.708397</v>
       </c>
     </row>
-    <row r="96" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>130</v>
       </c>
@@ -43764,7 +42157,7 @@
         <v>47655436365.292999</v>
       </c>
     </row>
-    <row r="97" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>131</v>
       </c>
@@ -44189,7 +42582,7 @@
         <v>47893702885.654999</v>
       </c>
     </row>
-    <row r="98" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>132</v>
       </c>
@@ -44614,7 +43007,7 @@
         <v>48098371400.474998</v>
       </c>
     </row>
-    <row r="99" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>133</v>
       </c>
@@ -45039,7 +43432,7 @@
         <v>48386555923.486603</v>
       </c>
     </row>
-    <row r="100" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>134</v>
       </c>
@@ -45464,7 +43857,7 @@
         <v>48629389817.436501</v>
       </c>
     </row>
-    <row r="101" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>135</v>
       </c>
@@ -45889,7 +44282,7 @@
         <v>48892514223.317398</v>
       </c>
     </row>
-    <row r="102" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>136</v>
       </c>
@@ -46314,7 +44707,7 @@
         <v>49252594829.672699</v>
       </c>
     </row>
-    <row r="103" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>137</v>
       </c>
@@ -46739,7 +45132,7 @@
         <v>49666780892.5383</v>
       </c>
     </row>
-    <row r="104" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>138</v>
       </c>
@@ -47164,7 +45557,7 @@
         <v>50064785104.044197</v>
       </c>
     </row>
-    <row r="105" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>139</v>
       </c>
@@ -47589,7 +45982,7 @@
         <v>50471153244.098503</v>
       </c>
     </row>
-    <row r="106" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>140</v>
       </c>
@@ -48014,7 +46407,7 @@
         <v>50893989711.699898</v>
       </c>
     </row>
-    <row r="107" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>141</v>
       </c>
@@ -48439,7 +46832,7 @@
         <v>51132553950.927696</v>
       </c>
     </row>
-    <row r="108" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>142</v>
       </c>
@@ -48864,7 +47257,7 @@
         <v>51436223835.3666</v>
       </c>
     </row>
-    <row r="109" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>143</v>
       </c>
@@ -49289,7 +47682,7 @@
         <v>51575790728.528297</v>
       </c>
     </row>
-    <row r="110" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>144</v>
       </c>
@@ -49714,7 +48107,7 @@
         <v>51789442892.325798</v>
       </c>
     </row>
-    <row r="111" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>145</v>
       </c>
@@ -50139,7 +48532,7 @@
         <v>52145628466.417</v>
       </c>
     </row>
-    <row r="112" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>146</v>
       </c>
@@ -50564,7 +48957,7 @@
         <v>52437733948.071701</v>
       </c>
     </row>
-    <row r="113" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>147</v>
       </c>
@@ -50989,7 +49382,7 @@
         <v>52646266991.1623</v>
       </c>
     </row>
-    <row r="114" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>148</v>
       </c>
@@ -51414,7 +49807,7 @@
         <v>52706906708.056801</v>
       </c>
     </row>
-    <row r="115" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>149</v>
       </c>
@@ -51839,7 +50232,7 @@
         <v>51257802408.400497</v>
       </c>
     </row>
-    <row r="116" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>150</v>
       </c>
@@ -52264,7 +50657,7 @@
         <v>46825643507.009804</v>
       </c>
     </row>
-    <row r="117" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>151</v>
       </c>
@@ -52689,7 +51082,7 @@
         <v>51178539780.708099</v>
       </c>
     </row>
-    <row r="118" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>152</v>
       </c>
@@ -53114,7 +51507,7 @@
         <v>51754310729.496399</v>
       </c>
     </row>
-    <row r="119" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>153</v>
       </c>
@@ -53539,7 +51932,7 @@
         <v>52198750929.867599</v>
       </c>
     </row>
-    <row r="120" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>154</v>
       </c>
@@ -53964,7 +52357,7 @@
         <v>53206708476.708199</v>
       </c>
     </row>
-    <row r="121" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>155</v>
       </c>
@@ -54389,7 +52782,7 @@
         <v>53853698593.012001</v>
       </c>
     </row>
-    <row r="122" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>156</v>
       </c>
@@ -54814,7 +53207,7 @@
         <v>54550841343.379601</v>
       </c>
     </row>
-    <row r="123" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>157</v>
       </c>
@@ -55239,7 +53632,7 @@
         <v>54684474364.177101</v>
       </c>
     </row>
-    <row r="124" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>158</v>
       </c>
@@ -55664,7 +54057,7 @@
         <v>54933226471.711197</v>
       </c>
     </row>
-    <row r="125" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>159</v>
       </c>
@@ -56089,7 +54482,7 @@
         <v>55299891734.561203</v>
       </c>
     </row>
-    <row r="126" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>160</v>
       </c>
@@ -56514,7 +54907,7 @@
         <v>55408029214.319504</v>
       </c>
     </row>
-    <row r="127" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>161</v>
       </c>
@@ -56939,7 +55332,7 @@
         <v>55676149464.246498</v>
       </c>
     </row>
-    <row r="128" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>162</v>
       </c>
@@ -57364,7 +55757,7 @@
         <v>55903962813.004097</v>
       </c>
     </row>
-    <row r="129" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>163</v>
       </c>
@@ -57789,7 +56182,7 @@
         <v>56142571104.013397</v>
       </c>
     </row>
-    <row r="130" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>164</v>
       </c>
@@ -58214,7 +56607,7 @@
         <v>56305936905.573402</v>
       </c>
     </row>
-    <row r="131" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>165</v>
       </c>
@@ -58639,7 +57032,7 @@
         <v>56564735914.686699</v>
       </c>
     </row>
-    <row r="132" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>166</v>
       </c>
@@ -59064,7 +57457,7 @@
         <v>56788913633.791298</v>
       </c>
     </row>
-    <row r="133" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>167</v>
       </c>
@@ -59489,7 +57882,7 @@
         <v>57079039935.937698</v>
       </c>
     </row>
-    <row r="134" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>168</v>
       </c>
